--- a/ExcelBuilder/Templates/TemplateForAuction.xlsx
+++ b/ExcelBuilder/Templates/TemplateForAuction.xlsx
@@ -131,7 +131,7 @@
     <t>GEL</t>
   </si>
   <si>
-    <t>Kcia 94</t>
+    <t>E-T Synergia</t>
   </si>
 </sst>
 </file>
@@ -140,7 +140,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="166" formatCode="0.00###"/>
+    <numFmt numFmtId="165" formatCode="0.00###"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -204,14 +204,15 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="166" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="12">
     <cellStyle name="Comma 2" xfId="1"/>
@@ -610,10 +611,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D32"/>
+  <dimension ref="A1:BF32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+      <selection activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -623,7 +624,7 @@
     <col min="13" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>25</v>
       </c>
@@ -631,7 +632,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>27</v>
       </c>
@@ -639,7 +640,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>29</v>
       </c>
@@ -647,21 +648,21 @@
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B4" s="3"/>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B4" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="5" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B5" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B5" s="3"/>
+    </row>
+    <row r="6" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>33</v>
       </c>
@@ -669,7 +670,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>35</v>
       </c>
@@ -677,54 +678,104 @@
         <v>36</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B8" s="4">
-        <v>-200</v>
-      </c>
-      <c r="C8" s="4">
-        <v>1000</v>
-      </c>
-      <c r="D8" s="4"/>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="5"/>
+      <c r="J8" s="5"/>
+      <c r="K8" s="5"/>
+      <c r="L8" s="5"/>
+      <c r="M8" s="5"/>
+      <c r="N8" s="5"/>
+      <c r="O8" s="5"/>
+      <c r="P8" s="5"/>
+      <c r="Q8" s="5"/>
+      <c r="R8" s="5"/>
+      <c r="S8" s="5"/>
+      <c r="T8" s="5"/>
+      <c r="U8" s="5"/>
+      <c r="V8" s="5"/>
+      <c r="W8" s="5"/>
+      <c r="X8" s="5"/>
+      <c r="Y8" s="5"/>
+      <c r="Z8" s="5"/>
+      <c r="AA8" s="5"/>
+      <c r="AB8" s="5"/>
+      <c r="AC8" s="5"/>
+      <c r="AD8" s="5"/>
+      <c r="AE8" s="5"/>
+      <c r="AF8" s="5"/>
+      <c r="AG8" s="5"/>
+      <c r="AH8" s="5"/>
+      <c r="AI8" s="5"/>
+      <c r="AJ8" s="5"/>
+      <c r="AK8" s="5"/>
+      <c r="AL8" s="5"/>
+      <c r="AM8" s="5"/>
+      <c r="AN8" s="5"/>
+      <c r="AO8" s="5"/>
+      <c r="AP8" s="5"/>
+      <c r="AQ8" s="5"/>
+      <c r="AR8" s="5"/>
+      <c r="AS8" s="5"/>
+      <c r="AT8" s="5"/>
+      <c r="AU8" s="5"/>
+      <c r="AV8" s="5"/>
+      <c r="AW8" s="5"/>
+      <c r="AX8" s="5"/>
+      <c r="AY8" s="5"/>
+      <c r="AZ8" s="5"/>
+      <c r="BA8" s="5"/>
+      <c r="BB8" s="5"/>
+      <c r="BC8" s="5"/>
+      <c r="BD8" s="5"/>
+      <c r="BE8" s="5"/>
+      <c r="BF8" s="5"/>
+    </row>
+    <row r="9" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>8</v>
       </c>
@@ -811,6 +862,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>